--- a/biology/Zoologie/Chrysopelea_paradisi/Chrysopelea_paradisi.xlsx
+++ b/biology/Zoologie/Chrysopelea_paradisi/Chrysopelea_paradisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopelea paradisi est une espèce de serpents de la famille des Colubridae[1].
-On l'appelle งูเขียวร่อน (ngu khieow ron) en Thaïlande[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopelea paradisi est une espèce de serpents de la famille des Colubridae.
+On l'appelle งูเขียวร่อน (ngu khieow ron) en Thaïlande.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Birmanie ;
 en Thaïlande y compris sur l'île de Phuket ;
 en Inde aux îles Andaman ;
@@ -550,7 +564,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette couleuvre volante vit dans les forêts tropicales.
 </t>
@@ -581,12 +597,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopelea paradisi est un serpent ovipare[1], diurne, arboricole et venimeux mais sa morsure, bien que puissante, n'est pas considérée comme dangereuse pour l'être humain. C'est un serpent opistoglyphe : ses glandes à venins sont reliées à des crochets se trouvant au fond de la gorge[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopelea paradisi est un serpent ovipare, diurne, arboricole et venimeux mais sa morsure, bien que puissante, n'est pas considérée comme dangereuse pour l'être humain. C'est un serpent opistoglyphe : ses glandes à venins sont reliées à des crochets se trouvant au fond de la gorge. 
 Il mesure de 1 m à 1,2 m (voir jusqu'à 1,5 m).
 Son ventre est clair et son dos sombre de la couleur des feuilles ce qui lui assure un camouflage efficace.
-Ce serpent glisse rapidement le long des branches. Comme les autres membres de ce genre, il est capable d'effectuer des vols planés en se lançant d'une branche pour se réceptionner sur une autre branche ou au sol[4] : il écarte ses côtes pour accroître la surface de son corps et rentre son ventre pour donner naissance à un creux profond concave[5] qui lui sert de parachute ; la résistance à l'air ralentit sa descente et, en variant la position de son corps, il peut se diriger[6] pour retomber plus loin jusqu'à près de 100 mètres de distance[7]
+Ce serpent glisse rapidement le long des branches. Comme les autres membres de ce genre, il est capable d'effectuer des vols planés en se lançant d'une branche pour se réceptionner sur une autre branche ou au sol : il écarte ses côtes pour accroître la surface de son corps et rentre son ventre pour donner naissance à un creux profond concave qui lui sert de parachute ; la résistance à l'air ralentit sa descente et, en variant la position de son corps, il peut se diriger pour retomber plus loin jusqu'à près de 100 mètres de distance
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette couleuvre mange des lézards et des grenouilles arboricoles.
 </t>
@@ -646,9 +666,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été un temps considérée comme synonyme de Chrysopelea ornata jusqu'à ce que Smith[8], en 1943, démontre qu'il s'agit d'une espèce à part entière[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été un temps considérée comme synonyme de Chrysopelea ornata jusqu'à ce que Smith, en 1943, démontre qu'il s'agit d'une espèce à part entière.
 </t>
         </is>
       </c>
@@ -677,9 +699,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 août 2011)[9] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 août 2011) :
 Chrysopelea paradisi paradisi Boie, 1827
 Chrysopelea paradisi celebensis Mertens, 1968 - Sulawesi
 Chrysopelea paradisi variabilis Mertens, 1968 - Philippines</t>
@@ -710,7 +734,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin paradisus, « parc », lui a été donné probablement parce que l'holotype a été découvert dans un parc. Ce n'est donc qu'indirectement que son nom est associé au paradis. Le nom de la sous-espèce Chrysopelea paradisi celebensis, composé de celeb et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les Célèbes, ancien nom du Sulawesi.
 </t>
@@ -741,7 +767,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Boie in Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)
 Mertens, 1968 : Die Arten und Unterarten der Schmuckbaumschlangen (Chrysopelea). Senckenbergiana biologica, vol. 49, p. 191-217.</t>
